--- a/error-import-demo-student-list.xlsx
+++ b/error-import-demo-student-list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Boku no\InternshipProject\student-fita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA0BF09-F39E-4B9D-AB12-B8C4C2ABB0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363EA886-00A2-442A-B3EE-605C70009815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0A5968B0-B636-4779-A398-BA415D297B06}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
   <si>
     <t>Nguyễn Văn</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Số điện thoại</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
@@ -117,15 +114,6 @@
     <t>0383817445</t>
   </si>
   <si>
-    <t>nva@gmail.com</t>
-  </si>
-  <si>
-    <t>ntb@gmail.com</t>
-  </si>
-  <si>
-    <t>nlc@gmail.com</t>
-  </si>
-  <si>
     <t>Ngành</t>
   </si>
   <si>
@@ -249,9 +237,6 @@
     <t>0269abcd</t>
   </si>
   <si>
-    <t>abcdefghyk</t>
-  </si>
-  <si>
     <t>Ái chà!!!</t>
   </si>
   <si>
@@ -267,54 +252,36 @@
     <t>Dương</t>
   </si>
   <si>
-    <t>ntd@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Trần</t>
   </si>
   <si>
     <t>Em</t>
   </si>
   <si>
-    <t>nte@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Hí</t>
   </si>
   <si>
     <t>Gạch</t>
   </si>
   <si>
-    <t>nhg@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Ánh</t>
   </si>
   <si>
     <t>Hiếu</t>
   </si>
   <si>
-    <t>nah@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Ngọc</t>
   </si>
   <si>
     <t>Ích</t>
   </si>
   <si>
-    <t>nni@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Lương</t>
   </si>
   <si>
     <t>Kiên</t>
   </si>
   <si>
-    <t>nlk@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Phong</t>
   </si>
   <si>
@@ -327,27 +294,18 @@
     <t>Mạnh</t>
   </si>
   <si>
-    <t>nlm@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Tích</t>
   </si>
   <si>
     <t>Ngọc</t>
   </si>
   <si>
-    <t>ntn@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Cao</t>
   </si>
   <si>
     <t>Ông</t>
   </si>
   <si>
-    <t>nco@gmail.com</t>
-  </si>
-  <si>
     <t>Tên người yêu</t>
   </si>
   <si>
@@ -358,27 +316,16 @@
   </si>
   <si>
     <t>Vương</t>
-  </si>
-  <si>
-    <t>ntv@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -407,17 +354,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -730,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86571EA6-E2F5-44D1-85B1-47F8112D8ED6}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,12 +691,11 @@
     <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -766,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -781,520 +724,460 @@
         <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="J12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{83D6E91E-10BE-4A9E-BE8C-D453C872B6A8}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{02E26573-3700-49D6-937A-154191AA3BBE}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{A7B8AAF0-F277-4C7B-A523-66EC8D98A871}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{08A97626-1187-4AD6-AE18-A08EF734D965}"/>
-    <hyperlink ref="J6" r:id="rId5" xr:uid="{1F8EF7FD-9D63-46EE-8290-6C9452BE6FC8}"/>
-    <hyperlink ref="J7" r:id="rId6" xr:uid="{D2C8965E-4D7D-43D6-97A7-BA0AA49C6D4F}"/>
-    <hyperlink ref="J8" r:id="rId7" xr:uid="{842ED500-75C5-4501-A99D-E253C1FD0099}"/>
-    <hyperlink ref="J9" r:id="rId8" xr:uid="{06DECBDE-1BFE-4044-9F7B-2668AD19D12E}"/>
-    <hyperlink ref="J10" r:id="rId9" xr:uid="{108B3AA2-8CBB-4DF5-85C7-5CCFBE4D14FD}"/>
-    <hyperlink ref="J13" r:id="rId10" xr:uid="{8800116B-D4A4-4472-A890-CED17478F3C4}"/>
-    <hyperlink ref="J14" r:id="rId11" xr:uid="{4387BD71-B102-422A-AB25-A9564F618127}"/>
-    <hyperlink ref="J15" r:id="rId12" xr:uid="{373EDDA2-2752-4589-A37F-5CC24277D9E2}"/>
-    <hyperlink ref="J12" r:id="rId13" xr:uid="{2A48B6E5-94F7-4425-9582-049EDE645724}"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/error-import-demo-student-list.xlsx
+++ b/error-import-demo-student-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Boku no\InternshipProject\student-fita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363EA886-00A2-442A-B3EE-605C70009815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F360CD3-0652-4876-B094-8797ABF4BFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0A5968B0-B636-4779-A398-BA415D297B06}"/>
   </bookViews>
@@ -677,7 +677,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
